--- a/consensus.xlsx
+++ b/consensus.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,9 +473,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.65</v>
+      </c>
+      <c r="B7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C7">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.63395000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
